--- a/TestDaten/HandVorne.xlsx
+++ b/TestDaten/HandVorne.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="HandVorne" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>HandRight.X</t>
   </si>
@@ -43,7 +43,31 @@
     <t>ElbowRight.Z</t>
   </si>
   <si>
-    <t>Stdabw</t>
+    <t>Hand Rechts</t>
+  </si>
+  <si>
+    <t>X [m]</t>
+  </si>
+  <si>
+    <t>Y [m]</t>
+  </si>
+  <si>
+    <t>Z [m]</t>
+  </si>
+  <si>
+    <t>Nullpunkt</t>
+  </si>
+  <si>
+    <t>Max Abw. [m]</t>
+  </si>
+  <si>
+    <t>Std. Abw [m]</t>
+  </si>
+  <si>
+    <t>Hüfte</t>
+  </si>
+  <si>
+    <t>Ellbogen Rechts</t>
   </si>
 </sst>
 </file>
@@ -368,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -483,6 +507,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -528,8 +589,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -610,920 +675,924 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HandVorne!$A$1</c:f>
+              <c:f>HandVorne!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HandRight.X</c:v>
+                  <c:v>HandRight.Y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>HandVorne!$A$2:$A$301</c:f>
+              <c:f>HandVorne!$B$2:$B$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>0.1469348</c:v>
+                  <c:v>-0.10561479999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14635870000000001</c:v>
+                  <c:v>-0.1051579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1458071</c:v>
+                  <c:v>-0.1049081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13579330000000001</c:v>
+                  <c:v>-9.7803119999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13525770000000001</c:v>
+                  <c:v>-9.8992919999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13410520000000001</c:v>
+                  <c:v>-9.804504E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1336697</c:v>
+                  <c:v>-9.9710259999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13293279999999999</c:v>
+                  <c:v>-0.1009945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13287399999999999</c:v>
+                  <c:v>-0.1010867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1322924</c:v>
+                  <c:v>-0.10013619999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1322758</c:v>
+                  <c:v>-0.10015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13229679999999999</c:v>
+                  <c:v>-0.1003206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13210859999999999</c:v>
+                  <c:v>-9.9904779999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13131499999999999</c:v>
+                  <c:v>-0.1005909</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13198760000000001</c:v>
+                  <c:v>-0.1010831</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1315849</c:v>
+                  <c:v>-9.9695859999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13211490000000001</c:v>
+                  <c:v>-0.10486479999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13229650000000001</c:v>
+                  <c:v>-0.1058988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13134199999999999</c:v>
+                  <c:v>-0.1011069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13101850000000001</c:v>
+                  <c:v>-0.1020124</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.130721</c:v>
+                  <c:v>-0.1003962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13069500000000001</c:v>
+                  <c:v>-9.9663489999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.13079769999999999</c:v>
+                  <c:v>-9.9600369999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.13482369999999999</c:v>
+                  <c:v>-0.10470989999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13624439999999999</c:v>
+                  <c:v>-0.1046246</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13637969999999999</c:v>
+                  <c:v>-0.10528559999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13684650000000001</c:v>
+                  <c:v>-0.1052289</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.13755590000000001</c:v>
+                  <c:v>-0.1038968</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1358702</c:v>
+                  <c:v>-9.8942909999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1349033</c:v>
+                  <c:v>-0.10173219999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13490640000000001</c:v>
+                  <c:v>-0.1015455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1344774</c:v>
+                  <c:v>-0.10267039999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13412879999999999</c:v>
+                  <c:v>-0.1014838</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13424549999999999</c:v>
+                  <c:v>-0.10216160000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13718949999999999</c:v>
+                  <c:v>-0.108887</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1362478</c:v>
+                  <c:v>-0.1076397</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13511200000000001</c:v>
+                  <c:v>-0.10830480000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1344448</c:v>
+                  <c:v>-0.1060618</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13360089999999999</c:v>
+                  <c:v>-0.1022208</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13286899999999999</c:v>
+                  <c:v>-0.1046011</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.13672989999999999</c:v>
+                  <c:v>-0.1099818</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1350712</c:v>
+                  <c:v>-0.10446030000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.13466919999999999</c:v>
+                  <c:v>-0.1058608</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.134435</c:v>
+                  <c:v>-0.1062901</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.13459270000000001</c:v>
+                  <c:v>-0.1064508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1345655</c:v>
+                  <c:v>-0.10022639999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13499059999999999</c:v>
+                  <c:v>-0.10000779999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1352439</c:v>
+                  <c:v>-0.10180400000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1352701</c:v>
+                  <c:v>-0.10303569999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1348982</c:v>
+                  <c:v>-0.1038554</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.13500989999999999</c:v>
+                  <c:v>-0.10532279999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.13538729999999999</c:v>
+                  <c:v>-0.1009712</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13586599999999999</c:v>
+                  <c:v>-0.1018196</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1354535</c:v>
+                  <c:v>-0.10075489999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.13490340000000001</c:v>
+                  <c:v>-0.102618</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.135073</c:v>
+                  <c:v>-0.10072540000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.13500100000000001</c:v>
+                  <c:v>-0.1003376</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.13579150000000001</c:v>
+                  <c:v>-0.10161679999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.13627320000000001</c:v>
+                  <c:v>-0.1038613</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.13972100000000001</c:v>
+                  <c:v>-0.10911659999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.13719290000000001</c:v>
+                  <c:v>-0.1052061</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1396831</c:v>
+                  <c:v>-0.1053608</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.14062540000000001</c:v>
+                  <c:v>-0.11102289999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.14040469999999999</c:v>
+                  <c:v>-0.11078440000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.13989799999999999</c:v>
+                  <c:v>-0.1065503</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.13889609999999999</c:v>
+                  <c:v>-0.1086303</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.13870089999999999</c:v>
+                  <c:v>-0.1087912</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1374215</c:v>
+                  <c:v>-0.10634879999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1355326</c:v>
+                  <c:v>-0.1017198</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.13428219999999999</c:v>
+                  <c:v>-0.1026498</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.13220670000000001</c:v>
+                  <c:v>-0.1189832</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.13717399999999999</c:v>
+                  <c:v>-0.1075107</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1379176</c:v>
+                  <c:v>-0.1110107</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.13726669999999999</c:v>
+                  <c:v>-0.1105916</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1309699</c:v>
+                  <c:v>-0.116573</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1373664</c:v>
+                  <c:v>-0.10495019999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1358347</c:v>
+                  <c:v>-0.1017806</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.134186</c:v>
+                  <c:v>-9.9840059999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.13419639999999999</c:v>
+                  <c:v>-9.9628179999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.13381009999999999</c:v>
+                  <c:v>-9.8886650000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.13335659999999999</c:v>
+                  <c:v>-9.8339579999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.13556650000000001</c:v>
+                  <c:v>-0.102365</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.13844709999999999</c:v>
+                  <c:v>-0.1063832</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1370565</c:v>
+                  <c:v>-0.1030331</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.13684869999999999</c:v>
+                  <c:v>-0.1026374</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.13669680000000001</c:v>
+                  <c:v>-0.1035531</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1350295</c:v>
+                  <c:v>-0.101281</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13449539999999999</c:v>
+                  <c:v>-0.10237259999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.1337218</c:v>
+                  <c:v>-0.1007371</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.13348760000000001</c:v>
+                  <c:v>-0.1007279</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.13263730000000001</c:v>
+                  <c:v>-0.1001243</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.13128709999999999</c:v>
+                  <c:v>-0.10350380000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13152639999999999</c:v>
+                  <c:v>-0.1036469</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.1312393</c:v>
+                  <c:v>-0.1041141</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.13059580000000001</c:v>
+                  <c:v>-0.1025578</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.13076969999999999</c:v>
+                  <c:v>-0.10250090000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.1305801</c:v>
+                  <c:v>-0.1030647</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.1304892</c:v>
+                  <c:v>-0.1039436</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.13072439999999999</c:v>
+                  <c:v>-0.1037771</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.1305395</c:v>
+                  <c:v>-0.1045779</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.1307632</c:v>
+                  <c:v>-0.1039501</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.13568230000000001</c:v>
+                  <c:v>-0.1118357</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.1360295</c:v>
+                  <c:v>-0.1113751</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.1366069</c:v>
+                  <c:v>-0.111015</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.13942589999999999</c:v>
+                  <c:v>-0.13204189999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.1359476</c:v>
+                  <c:v>-0.1094647</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.1365682</c:v>
+                  <c:v>-0.10969810000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.13760449999999999</c:v>
+                  <c:v>-0.1093653</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.13690559999999999</c:v>
+                  <c:v>-0.10843990000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.13577719999999999</c:v>
+                  <c:v>-0.10545649999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.13520480000000001</c:v>
+                  <c:v>-0.10635260000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.13551389999999999</c:v>
+                  <c:v>-0.1024398</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.13565060000000001</c:v>
+                  <c:v>-0.1026309</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.1414222</c:v>
+                  <c:v>-0.1108452</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.14078080000000001</c:v>
+                  <c:v>-0.1096664</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.14189309999999999</c:v>
+                  <c:v>-0.1096688</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.1393026</c:v>
+                  <c:v>-0.1092182</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.13976189999999999</c:v>
+                  <c:v>-0.10910019999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.1414349</c:v>
+                  <c:v>-0.1099316</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.14001040000000001</c:v>
+                  <c:v>-0.1081979</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.13954169999999999</c:v>
+                  <c:v>-0.1077169</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.1386917</c:v>
+                  <c:v>-0.1076346</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.1383132</c:v>
+                  <c:v>-0.10784970000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.13820270000000001</c:v>
+                  <c:v>-0.1079324</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.1352295</c:v>
+                  <c:v>-0.1012627</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.13563120000000001</c:v>
+                  <c:v>-0.10187740000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.13542489999999999</c:v>
+                  <c:v>-0.1032251</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.135381</c:v>
+                  <c:v>-0.10353270000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.13549340000000001</c:v>
+                  <c:v>-0.1036281</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.1379262</c:v>
+                  <c:v>-0.10661760000000001</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.13811560000000001</c:v>
+                  <c:v>-0.10705430000000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.1386539</c:v>
+                  <c:v>-0.10806490000000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.1373026</c:v>
+                  <c:v>-0.1084965</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.137491</c:v>
+                  <c:v>-0.1082977</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.14010739999999999</c:v>
+                  <c:v>-0.11121689999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.14232149999999999</c:v>
+                  <c:v>-0.11142009999999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.14404790000000001</c:v>
+                  <c:v>-0.11079070000000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.14038510000000001</c:v>
+                  <c:v>-0.1094395</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.13942869999999999</c:v>
+                  <c:v>-0.10554669999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.14228189999999999</c:v>
+                  <c:v>-0.1065179</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.1405161</c:v>
+                  <c:v>-0.10452740000000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.14060600000000001</c:v>
+                  <c:v>-0.1029764</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.14108270000000001</c:v>
+                  <c:v>-0.10267569999999999</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.1413045</c:v>
+                  <c:v>-0.1064147</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.14210590000000001</c:v>
+                  <c:v>-0.10635840000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.14207810000000001</c:v>
+                  <c:v>-0.10627689999999999</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.1426492</c:v>
+                  <c:v>-0.10390249999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.14268729999999999</c:v>
+                  <c:v>-0.10312689999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.1423787</c:v>
+                  <c:v>-0.10222249999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.142429</c:v>
+                  <c:v>-0.1020022</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.14221449999999999</c:v>
+                  <c:v>-0.1017184</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.14287910000000001</c:v>
+                  <c:v>-0.1014314</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.1427561</c:v>
+                  <c:v>-0.1008381</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.1426528</c:v>
+                  <c:v>-0.100651</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.14268</c:v>
+                  <c:v>-0.1003286</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.14307549999999999</c:v>
+                  <c:v>-9.9412459999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.1431267</c:v>
+                  <c:v>-9.929694E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.14142779999999999</c:v>
+                  <c:v>-9.8529729999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.14350479999999999</c:v>
+                  <c:v>-0.1020155</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.1429474</c:v>
+                  <c:v>-0.1026378</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.1408903</c:v>
+                  <c:v>-0.1047917</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.1412031</c:v>
+                  <c:v>-0.1033314</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.14137140000000001</c:v>
+                  <c:v>-0.10234210000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.1414937</c:v>
+                  <c:v>-0.10187839999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.14161979999999999</c:v>
+                  <c:v>-0.1014243</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.14139379999999999</c:v>
+                  <c:v>-0.1020166</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.1412621</c:v>
+                  <c:v>-0.1018033</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.14261270000000001</c:v>
+                  <c:v>-0.1027598</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.1426453</c:v>
+                  <c:v>-0.1028636</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.14259810000000001</c:v>
+                  <c:v>-0.102675</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.1421733</c:v>
+                  <c:v>-0.1018604</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.1418528</c:v>
+                  <c:v>-0.1011794</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.14174680000000001</c:v>
+                  <c:v>-0.10187</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.14150689999999999</c:v>
+                  <c:v>-0.1014968</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.14119960000000001</c:v>
+                  <c:v>-0.1018963</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.14151820000000001</c:v>
+                  <c:v>-0.10499219999999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.14138300000000001</c:v>
+                  <c:v>-0.1050908</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.1412168</c:v>
+                  <c:v>-0.1063311</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.1422754</c:v>
+                  <c:v>-0.1063413</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.14236370000000001</c:v>
+                  <c:v>-0.10614510000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.143207</c:v>
+                  <c:v>-0.1076125</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.14305960000000001</c:v>
+                  <c:v>-0.1080769</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.1433556</c:v>
+                  <c:v>-0.1077294</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.14142479999999999</c:v>
+                  <c:v>-9.9808450000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.14202010000000001</c:v>
+                  <c:v>-0.1029098</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.14031660000000001</c:v>
+                  <c:v>-0.10499940000000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.14190369999999999</c:v>
+                  <c:v>-0.10724499999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.1426104</c:v>
+                  <c:v>-0.1076686</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.1428943</c:v>
+                  <c:v>-0.10839600000000001</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.1429433</c:v>
+                  <c:v>-0.108528</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.1433517</c:v>
+                  <c:v>-0.1085652</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.14349770000000001</c:v>
+                  <c:v>-0.1083721</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.1420468</c:v>
+                  <c:v>-9.7570009999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.1430775</c:v>
+                  <c:v>-9.8992819999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.1437978</c:v>
+                  <c:v>-0.1013848</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.14392659999999999</c:v>
+                  <c:v>-0.1011136</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.14334540000000001</c:v>
+                  <c:v>-0.102226</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.14300969999999999</c:v>
+                  <c:v>-0.101621</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.14257239999999999</c:v>
+                  <c:v>-0.1034389</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.14232909999999999</c:v>
+                  <c:v>-0.1045281</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.13864299999999999</c:v>
+                  <c:v>-0.1063841</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.138872</c:v>
+                  <c:v>-0.1067866</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.1382178</c:v>
+                  <c:v>-0.1055126</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.13920289999999999</c:v>
+                  <c:v>-0.106837</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.13983880000000001</c:v>
+                  <c:v>-0.10786850000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.1389283</c:v>
+                  <c:v>-0.107645</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.1389745</c:v>
+                  <c:v>-0.1075909</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.1380574</c:v>
+                  <c:v>-0.10576629999999999</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.13789360000000001</c:v>
+                  <c:v>-0.1059607</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.13606090000000001</c:v>
+                  <c:v>-0.1028357</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.1360209</c:v>
+                  <c:v>-0.1030673</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.13569980000000001</c:v>
+                  <c:v>-0.1035508</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.13569790000000001</c:v>
+                  <c:v>-0.1035895</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.1361726</c:v>
+                  <c:v>-0.103967</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.13609840000000001</c:v>
+                  <c:v>-0.1042464</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.13613810000000001</c:v>
+                  <c:v>-0.1045031</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.1361029</c:v>
+                  <c:v>-0.1045769</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.13603419999999999</c:v>
+                  <c:v>-0.1047923</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.13596449999999999</c:v>
+                  <c:v>-0.104856</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.13827059999999999</c:v>
+                  <c:v>-0.10704</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.13775519999999999</c:v>
+                  <c:v>-0.1068833</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.1386482</c:v>
+                  <c:v>-0.10710210000000001</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.13711880000000001</c:v>
+                  <c:v>-0.10432470000000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.13733890000000001</c:v>
+                  <c:v>-0.1044204</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.13729549999999999</c:v>
+                  <c:v>-0.1046011</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.13691700000000001</c:v>
+                  <c:v>-0.102642</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.1370497</c:v>
+                  <c:v>-0.1028247</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.1364168</c:v>
+                  <c:v>-0.10226970000000001</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.136799</c:v>
+                  <c:v>-0.1019649</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.13677729999999999</c:v>
+                  <c:v>-0.1014347</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.13724500000000001</c:v>
+                  <c:v>-0.1020382</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.13732150000000001</c:v>
+                  <c:v>-0.1022203</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.13748270000000001</c:v>
+                  <c:v>-0.10335660000000001</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.13758139999999999</c:v>
+                  <c:v>-0.10349369999999999</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.14054030000000001</c:v>
+                  <c:v>-0.1074204</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.14028669999999999</c:v>
+                  <c:v>-0.1071115</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.14276069999999999</c:v>
+                  <c:v>-0.1063627</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.141961</c:v>
+                  <c:v>-9.9620539999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.1408076</c:v>
+                  <c:v>-0.101449</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.1432812</c:v>
+                  <c:v>-0.10818460000000001</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.14007829999999999</c:v>
+                  <c:v>-9.6383010000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.1396056</c:v>
+                  <c:v>-9.6516389999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.13953789999999999</c:v>
+                  <c:v>-9.6552310000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.1386937</c:v>
+                  <c:v>-0.1006726</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.13854140000000001</c:v>
+                  <c:v>-0.1004921</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.13866400000000001</c:v>
+                  <c:v>-0.1003067</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.13831830000000001</c:v>
+                  <c:v>-0.1015596</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.13856930000000001</c:v>
+                  <c:v>-0.1009733</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.13863120000000001</c:v>
+                  <c:v>-0.1008228</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.1386839</c:v>
+                  <c:v>-0.10117719999999999</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.1388074</c:v>
+                  <c:v>-0.1016736</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.13886680000000001</c:v>
+                  <c:v>-0.10206899999999999</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.13835459999999999</c:v>
+                  <c:v>-0.1010722</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.14276630000000001</c:v>
+                  <c:v>-0.10481509999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.14153750000000001</c:v>
+                  <c:v>-0.10489569999999999</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.1422612</c:v>
+                  <c:v>-0.1064389</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.14180129999999999</c:v>
+                  <c:v>-0.1061259</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.14167850000000001</c:v>
+                  <c:v>-0.1039346</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.14174120000000001</c:v>
+                  <c:v>-0.10282289999999999</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.14146520000000001</c:v>
+                  <c:v>-0.1019833</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.14119709999999999</c:v>
+                  <c:v>-0.10086349999999999</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.14071030000000001</c:v>
+                  <c:v>-0.1040288</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.1391056</c:v>
+                  <c:v>-9.5436549999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.13802149999999999</c:v>
+                  <c:v>-0.1003077</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.13811590000000001</c:v>
+                  <c:v>-0.10003190000000001</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.13821420000000001</c:v>
+                  <c:v>-9.9453410000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.13792499999999999</c:v>
+                  <c:v>-9.9900359999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.1379686</c:v>
+                  <c:v>-9.9427489999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0.138652</c:v>
+                  <c:v>-9.8985530000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0.14048579999999999</c:v>
+                  <c:v>-0.1019434</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.1389106</c:v>
+                  <c:v>-0.1051829</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.13894139999999999</c:v>
+                  <c:v>-0.10562630000000001</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.13825109999999999</c:v>
+                  <c:v>-0.10627739999999999</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.13810120000000001</c:v>
+                  <c:v>-0.1065648</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.13811390000000001</c:v>
+                  <c:v>-0.101191</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.13744139999999999</c:v>
+                  <c:v>-9.9088620000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.13712930000000001</c:v>
+                  <c:v>-9.8339850000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.13644490000000001</c:v>
+                  <c:v>-9.7664139999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.13642190000000001</c:v>
+                  <c:v>-9.7284179999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.13655300000000001</c:v>
+                  <c:v>-0.1003122</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.13703969999999999</c:v>
+                  <c:v>-9.9091139999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.1369079</c:v>
+                  <c:v>-9.8511769999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.13750979999999999</c:v>
+                  <c:v>-0.1018713</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.13799529999999999</c:v>
+                  <c:v>-9.5732360000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.13801820000000001</c:v>
+                  <c:v>-9.5468280000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.13809080000000001</c:v>
+                  <c:v>-9.3922320000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.1365171</c:v>
+                  <c:v>-0.10410519999999999</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.13582739999999999</c:v>
+                  <c:v>-0.10147929999999999</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.1370362</c:v>
+                  <c:v>-9.5544790000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.13678000000000001</c:v>
+                  <c:v>-9.5257300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.1369409</c:v>
+                  <c:v>-9.5120399999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.1372708</c:v>
+                  <c:v>-9.3493359999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.13716390000000001</c:v>
+                  <c:v>-9.3576950000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.13570660000000001</c:v>
+                  <c:v>-0.1008628</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.13524990000000001</c:v>
+                  <c:v>-0.1037028</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.13468269999999999</c:v>
+                  <c:v>-0.1050667</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.1363298</c:v>
+                  <c:v>-9.9613110000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.13485910000000001</c:v>
+                  <c:v>-9.5808370000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.1345488</c:v>
+                  <c:v>-9.3899209999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.13405909999999999</c:v>
+                  <c:v>-9.3143870000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,920 +1604,1853 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HandVorne!$B$1</c:f>
+              <c:f>HandVorne!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HandRight.Y</c:v>
+                  <c:v>HipCenter.Y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>HandVorne!$B$2:$B$301</c:f>
+              <c:f>HandVorne!$E$2:$E$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>-0.10561479999999999</c:v>
+                  <c:v>-0.3699152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1051579</c:v>
+                  <c:v>-0.36985489999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1049081</c:v>
+                  <c:v>-0.36937249999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.7803119999999993E-2</c:v>
+                  <c:v>-0.36928729999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.8992919999999998E-2</c:v>
+                  <c:v>-0.36927490000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.804504E-2</c:v>
+                  <c:v>-0.36928499999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.9710259999999995E-2</c:v>
+                  <c:v>-0.36918459999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1009945</c:v>
+                  <c:v>-0.36888799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.1010867</c:v>
+                  <c:v>-0.36883939999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.10013619999999999</c:v>
+                  <c:v>-0.36926530000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.10015</c:v>
+                  <c:v>-0.36938490000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.1003206</c:v>
+                  <c:v>-0.36953799999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.9904779999999999E-2</c:v>
+                  <c:v>-0.36955710000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.1005909</c:v>
+                  <c:v>-0.36957250000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.1010831</c:v>
+                  <c:v>-0.36980030000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.9695859999999997E-2</c:v>
+                  <c:v>-0.37003239999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.10486479999999999</c:v>
+                  <c:v>-0.37021199999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.1058988</c:v>
+                  <c:v>-0.3702839</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.1011069</c:v>
+                  <c:v>-0.37037639999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1020124</c:v>
+                  <c:v>-0.3703166</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.1003962</c:v>
+                  <c:v>-0.37075580000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9.9663489999999993E-2</c:v>
+                  <c:v>-0.37087940000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9.9600369999999994E-2</c:v>
+                  <c:v>-0.37095669999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.10470989999999999</c:v>
+                  <c:v>-0.37088749999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1046246</c:v>
+                  <c:v>-0.37050280000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.10528559999999999</c:v>
+                  <c:v>-0.37047960000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.1052289</c:v>
+                  <c:v>-0.37054409999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.1038968</c:v>
+                  <c:v>-0.37059629999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.8942909999999995E-2</c:v>
+                  <c:v>-0.3706159</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.10173219999999999</c:v>
+                  <c:v>-0.37037110000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.1015455</c:v>
+                  <c:v>-0.37037530000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.10267039999999999</c:v>
+                  <c:v>-0.37046639999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.1014838</c:v>
+                  <c:v>-0.37043870000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.10216160000000001</c:v>
+                  <c:v>-0.3703284</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.108887</c:v>
+                  <c:v>-0.37023869999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.1076397</c:v>
+                  <c:v>-0.37001099999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.10830480000000001</c:v>
+                  <c:v>-0.3699693</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.1060618</c:v>
+                  <c:v>-0.37001800000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.1022208</c:v>
+                  <c:v>-0.36964839999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.1046011</c:v>
+                  <c:v>-0.36968069999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.1099818</c:v>
+                  <c:v>-0.36969469999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.10446030000000001</c:v>
+                  <c:v>-0.36937589999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.1058608</c:v>
+                  <c:v>-0.36940460000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.1062901</c:v>
+                  <c:v>-0.36934640000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.1064508</c:v>
+                  <c:v>-0.36883680000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.10022639999999999</c:v>
+                  <c:v>-0.36873640000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.10000779999999999</c:v>
+                  <c:v>-0.36873810000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.10180400000000001</c:v>
+                  <c:v>-0.36873260000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.10303569999999999</c:v>
+                  <c:v>-0.36875570000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.1038554</c:v>
+                  <c:v>-0.36869039999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.10532279999999999</c:v>
+                  <c:v>-0.36882860000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1009712</c:v>
+                  <c:v>-0.36894159999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.1018196</c:v>
+                  <c:v>-0.36882150000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.10075489999999999</c:v>
+                  <c:v>-0.36876029999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.102618</c:v>
+                  <c:v>-0.36867610000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.10072540000000001</c:v>
+                  <c:v>-0.36866959999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.1003376</c:v>
+                  <c:v>-0.36877460000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.10161679999999999</c:v>
+                  <c:v>-0.36888890000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.1038613</c:v>
+                  <c:v>-0.36889850000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.10911659999999999</c:v>
+                  <c:v>-0.36903069999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.1052061</c:v>
+                  <c:v>-0.36869069999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.1053608</c:v>
+                  <c:v>-0.36879250000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.11102289999999999</c:v>
+                  <c:v>-0.36915389999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.11078440000000001</c:v>
+                  <c:v>-0.36976199999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.1065503</c:v>
+                  <c:v>-0.36978260000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.1086303</c:v>
+                  <c:v>-0.37012</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.1087912</c:v>
+                  <c:v>-0.37019099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.10634879999999999</c:v>
+                  <c:v>-0.37005719999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.1017198</c:v>
+                  <c:v>-0.37007099999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.1026498</c:v>
+                  <c:v>-0.37006240000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.1189832</c:v>
+                  <c:v>-0.37058279999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.1075107</c:v>
+                  <c:v>-0.37053659999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.1110107</c:v>
+                  <c:v>-0.37066270000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.1105916</c:v>
+                  <c:v>-0.37067529999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.116573</c:v>
+                  <c:v>-0.37034529999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.10495019999999999</c:v>
+                  <c:v>-0.37064540000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.1017806</c:v>
+                  <c:v>-0.37072830000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-9.9840059999999994E-2</c:v>
+                  <c:v>-0.37067860000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-9.9628179999999997E-2</c:v>
+                  <c:v>-0.370564</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-9.8886650000000006E-2</c:v>
+                  <c:v>-0.37058289999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-9.8339579999999996E-2</c:v>
+                  <c:v>-0.37071169999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.102365</c:v>
+                  <c:v>-0.37067</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.1063832</c:v>
+                  <c:v>-0.37067119999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.1030331</c:v>
+                  <c:v>-0.37076979999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.1026374</c:v>
+                  <c:v>-0.37086279999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.1035531</c:v>
+                  <c:v>-0.37062099999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.101281</c:v>
+                  <c:v>-0.3705504</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.10237259999999999</c:v>
+                  <c:v>-0.37078519999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.1007371</c:v>
+                  <c:v>-0.3709655</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.1007279</c:v>
+                  <c:v>-0.37057889999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.1001243</c:v>
+                  <c:v>-0.37040590000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.10350380000000001</c:v>
+                  <c:v>-0.37033719999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.1036469</c:v>
+                  <c:v>-0.37029810000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.1041141</c:v>
+                  <c:v>-0.37010789999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.1025578</c:v>
+                  <c:v>-0.37013040000000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.10250090000000001</c:v>
+                  <c:v>-0.37003059999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.1030647</c:v>
+                  <c:v>-0.37010539999999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.1039436</c:v>
+                  <c:v>-0.3702838</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.1037771</c:v>
+                  <c:v>-0.37053459999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.1045779</c:v>
+                  <c:v>-0.370587</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.1039501</c:v>
+                  <c:v>-0.37077209999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.1118357</c:v>
+                  <c:v>-0.37058780000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.1113751</c:v>
+                  <c:v>-0.37040390000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.111015</c:v>
+                  <c:v>-0.37019619999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.13204189999999999</c:v>
+                  <c:v>-0.36832379999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.1094647</c:v>
+                  <c:v>-0.36837789999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.10969810000000001</c:v>
+                  <c:v>-0.36942839999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.1093653</c:v>
+                  <c:v>-0.36924230000000002</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.10843990000000001</c:v>
+                  <c:v>-0.36914000000000002</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.10545649999999999</c:v>
+                  <c:v>-0.36839729999999998</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.10635260000000001</c:v>
+                  <c:v>-0.3687201</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.1024398</c:v>
+                  <c:v>-0.36838589999999999</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.1026309</c:v>
+                  <c:v>-0.36794090000000002</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.1108452</c:v>
+                  <c:v>-0.36794080000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.1096664</c:v>
+                  <c:v>-0.36799169999999998</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.1096688</c:v>
+                  <c:v>-0.36824180000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.1092182</c:v>
+                  <c:v>-0.36830560000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.10910019999999999</c:v>
+                  <c:v>-0.36823230000000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.1099316</c:v>
+                  <c:v>-0.36823939999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.1081979</c:v>
+                  <c:v>-0.36823250000000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.1077169</c:v>
+                  <c:v>-0.36819279999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.1076346</c:v>
+                  <c:v>-0.36848229999999998</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.10784970000000001</c:v>
+                  <c:v>-0.36837730000000002</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.1079324</c:v>
+                  <c:v>-0.36839630000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.1012627</c:v>
+                  <c:v>-0.36838219999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.10187740000000001</c:v>
+                  <c:v>-0.36808580000000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.1032251</c:v>
+                  <c:v>-0.3676006</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.10353270000000001</c:v>
+                  <c:v>-0.36788690000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.1036281</c:v>
+                  <c:v>-0.36791119999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.10661760000000001</c:v>
+                  <c:v>-0.36784850000000002</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.10705430000000001</c:v>
+                  <c:v>-0.36796299999999998</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.10806490000000001</c:v>
+                  <c:v>-0.36777169999999998</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.1084965</c:v>
+                  <c:v>-0.36777589999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.1082977</c:v>
+                  <c:v>-0.36857649999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.11121689999999999</c:v>
+                  <c:v>-0.36862840000000002</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.11142009999999999</c:v>
+                  <c:v>-0.36906610000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.11079070000000001</c:v>
+                  <c:v>-0.36908239999999998</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.1094395</c:v>
+                  <c:v>-0.3691565</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.10554669999999999</c:v>
+                  <c:v>-0.369286</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.1065179</c:v>
+                  <c:v>-0.36922820000000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.10452740000000001</c:v>
+                  <c:v>-0.36862210000000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.1029764</c:v>
+                  <c:v>-0.36857119999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.10267569999999999</c:v>
+                  <c:v>-0.36850250000000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.1064147</c:v>
+                  <c:v>-0.36836839999999998</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.10635840000000001</c:v>
+                  <c:v>-0.3684849</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.10627689999999999</c:v>
+                  <c:v>-0.36837959999999997</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-0.10390249999999999</c:v>
+                  <c:v>-0.36914629999999998</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.10312689999999999</c:v>
+                  <c:v>-0.36907259999999997</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.10222249999999999</c:v>
+                  <c:v>-0.36891190000000001</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-0.1020022</c:v>
+                  <c:v>-0.3701449</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-0.1017184</c:v>
+                  <c:v>-0.37011300000000003</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.1014314</c:v>
+                  <c:v>-0.37016529999999997</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.1008381</c:v>
+                  <c:v>-0.37019210000000002</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.100651</c:v>
+                  <c:v>-0.36999300000000002</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.1003286</c:v>
+                  <c:v>-0.37007129999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-9.9412459999999994E-2</c:v>
+                  <c:v>-0.37042510000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-9.929694E-2</c:v>
+                  <c:v>-0.37023400000000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-9.8529729999999996E-2</c:v>
+                  <c:v>-0.3698437</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.1020155</c:v>
+                  <c:v>-0.36944539999999998</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.1026378</c:v>
+                  <c:v>-0.3694693</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.1047917</c:v>
+                  <c:v>-0.36942540000000001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.1033314</c:v>
+                  <c:v>-0.3693186</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.10234210000000001</c:v>
+                  <c:v>-0.36934020000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.10187839999999999</c:v>
+                  <c:v>-0.36924469999999998</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.1014243</c:v>
+                  <c:v>-0.36915989999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.1020166</c:v>
+                  <c:v>-0.36894250000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-0.1018033</c:v>
+                  <c:v>-0.36901420000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.1027598</c:v>
+                  <c:v>-0.36899779999999999</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.1028636</c:v>
+                  <c:v>-0.36928240000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.102675</c:v>
+                  <c:v>-0.36960019999999999</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.1018604</c:v>
+                  <c:v>-0.36976740000000002</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.1011794</c:v>
+                  <c:v>-0.37008229999999998</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.10187</c:v>
+                  <c:v>-0.37022149999999998</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.1014968</c:v>
+                  <c:v>-0.36952950000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.1018963</c:v>
+                  <c:v>-0.3695465</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.10499219999999999</c:v>
+                  <c:v>-0.36872260000000001</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.1050908</c:v>
+                  <c:v>-0.3688109</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.1063311</c:v>
+                  <c:v>-0.36885109999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.1063413</c:v>
+                  <c:v>-0.36882860000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.10614510000000001</c:v>
+                  <c:v>-0.36884099999999997</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.1076125</c:v>
+                  <c:v>-0.3689403</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.1080769</c:v>
+                  <c:v>-0.36880299999999999</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.1077294</c:v>
+                  <c:v>-0.36889280000000002</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-9.9808450000000007E-2</c:v>
+                  <c:v>-0.36919220000000003</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.1029098</c:v>
+                  <c:v>-0.36909330000000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.10499940000000001</c:v>
+                  <c:v>-0.36903829999999999</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.10724499999999999</c:v>
+                  <c:v>-0.36900899999999998</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.1076686</c:v>
+                  <c:v>-0.36884790000000001</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.10839600000000001</c:v>
+                  <c:v>-0.36888559999999998</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.108528</c:v>
+                  <c:v>-0.368649</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.1085652</c:v>
+                  <c:v>-0.368363</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.1083721</c:v>
+                  <c:v>-0.36862479999999997</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-9.7570009999999999E-2</c:v>
+                  <c:v>-0.3686258</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-9.8992819999999995E-2</c:v>
+                  <c:v>-0.36842819999999998</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.1013848</c:v>
+                  <c:v>-0.36853839999999999</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.1011136</c:v>
+                  <c:v>-0.36858269999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.102226</c:v>
+                  <c:v>-0.36845030000000001</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.101621</c:v>
+                  <c:v>-0.3684074</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.1034389</c:v>
+                  <c:v>-0.36828630000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.1045281</c:v>
+                  <c:v>-0.36823729999999999</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.1063841</c:v>
+                  <c:v>-0.36816520000000003</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.1067866</c:v>
+                  <c:v>-0.36800820000000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.1055126</c:v>
+                  <c:v>-0.36813040000000002</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-0.106837</c:v>
+                  <c:v>-0.3680466</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-0.10786850000000001</c:v>
+                  <c:v>-0.36845670000000003</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.107645</c:v>
+                  <c:v>-0.36862919999999999</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-0.1075909</c:v>
+                  <c:v>-0.36850860000000002</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-0.10576629999999999</c:v>
+                  <c:v>-0.3685021</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.1059607</c:v>
+                  <c:v>-0.36798999999999998</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.1028357</c:v>
+                  <c:v>-0.36790040000000002</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.1030673</c:v>
+                  <c:v>-0.36761709999999997</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.1035508</c:v>
+                  <c:v>-0.36766670000000001</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-0.1035895</c:v>
+                  <c:v>-0.36760779999999998</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.103967</c:v>
+                  <c:v>-0.36747580000000002</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.1042464</c:v>
+                  <c:v>-0.36749080000000001</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.1045031</c:v>
+                  <c:v>-0.36743350000000002</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.1045769</c:v>
+                  <c:v>-0.36742950000000002</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.1047923</c:v>
+                  <c:v>-0.367475</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.104856</c:v>
+                  <c:v>-0.36739860000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.10704</c:v>
+                  <c:v>-0.36739159999999998</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.1068833</c:v>
+                  <c:v>-0.3673632</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.10710210000000001</c:v>
+                  <c:v>-0.36667480000000002</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.10432470000000001</c:v>
+                  <c:v>-0.36703370000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.1044204</c:v>
+                  <c:v>-0.3675717</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.1046011</c:v>
+                  <c:v>-0.36764520000000001</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.102642</c:v>
+                  <c:v>-0.36728729999999998</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.1028247</c:v>
+                  <c:v>-0.36735390000000001</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.10226970000000001</c:v>
+                  <c:v>-0.36734280000000002</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.1019649</c:v>
+                  <c:v>-0.36747659999999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.1014347</c:v>
+                  <c:v>-0.36747059999999998</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.1020382</c:v>
+                  <c:v>-0.36740420000000001</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.1022203</c:v>
+                  <c:v>-0.36792560000000002</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.10335660000000001</c:v>
+                  <c:v>-0.36808580000000002</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.10349369999999999</c:v>
+                  <c:v>-0.36821350000000003</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.1074204</c:v>
+                  <c:v>-0.3681971</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.1071115</c:v>
+                  <c:v>-0.36856309999999998</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.1063627</c:v>
+                  <c:v>-0.36839319999999998</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-9.9620539999999994E-2</c:v>
+                  <c:v>-0.3682684</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.101449</c:v>
+                  <c:v>-0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-0.10818460000000001</c:v>
+                  <c:v>-0.367788</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-9.6383010000000005E-2</c:v>
+                  <c:v>-0.36778119999999997</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-9.6516389999999994E-2</c:v>
+                  <c:v>-0.36773040000000001</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-9.6552310000000002E-2</c:v>
+                  <c:v>-0.36762909999999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.1006726</c:v>
+                  <c:v>-0.36761240000000001</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.1004921</c:v>
+                  <c:v>-0.36767270000000002</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.1003067</c:v>
+                  <c:v>-0.36758829999999998</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-0.1015596</c:v>
+                  <c:v>-0.36776989999999998</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-0.1009733</c:v>
+                  <c:v>-0.36789189999999999</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-0.1008228</c:v>
+                  <c:v>-0.36791659999999998</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-0.10117719999999999</c:v>
+                  <c:v>-0.36790620000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-0.1016736</c:v>
+                  <c:v>-0.36755130000000003</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-0.10206899999999999</c:v>
+                  <c:v>-0.36768529999999999</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-0.1010722</c:v>
+                  <c:v>-0.36747770000000002</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-0.10481509999999999</c:v>
+                  <c:v>-0.36775390000000002</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-0.10489569999999999</c:v>
+                  <c:v>-0.36774509999999999</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-0.1064389</c:v>
+                  <c:v>-0.36766399999999999</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-0.1061259</c:v>
+                  <c:v>-0.36789430000000001</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-0.1039346</c:v>
+                  <c:v>-0.36782189999999998</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-0.10282289999999999</c:v>
+                  <c:v>-0.367757</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-0.1019833</c:v>
+                  <c:v>-0.36769489999999999</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-0.10086349999999999</c:v>
+                  <c:v>-0.36762980000000001</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-0.1040288</c:v>
+                  <c:v>-0.36770029999999998</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-9.5436549999999995E-2</c:v>
+                  <c:v>-0.36792079999999999</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-0.1003077</c:v>
+                  <c:v>-0.36830259999999998</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-0.10003190000000001</c:v>
+                  <c:v>-0.36825340000000001</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-9.9453410000000006E-2</c:v>
+                  <c:v>-0.3682917</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-9.9900359999999994E-2</c:v>
+                  <c:v>-0.36828260000000002</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-9.9427489999999993E-2</c:v>
+                  <c:v>-0.36823990000000001</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-9.8985530000000002E-2</c:v>
+                  <c:v>-0.36814150000000001</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-0.1019434</c:v>
+                  <c:v>-0.36791230000000003</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-0.1051829</c:v>
+                  <c:v>-0.36770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-0.10562630000000001</c:v>
+                  <c:v>-0.36733060000000001</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-0.10627739999999999</c:v>
+                  <c:v>-0.36754110000000001</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-0.1065648</c:v>
+                  <c:v>-0.36756949999999999</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-0.101191</c:v>
+                  <c:v>-0.36758000000000002</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-9.9088620000000002E-2</c:v>
+                  <c:v>-0.36744369999999998</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-9.8339850000000006E-2</c:v>
+                  <c:v>-0.36735220000000002</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-9.7664139999999997E-2</c:v>
+                  <c:v>-0.36728450000000001</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-9.7284179999999998E-2</c:v>
+                  <c:v>-0.36752820000000003</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-0.1003122</c:v>
+                  <c:v>-0.3674634</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-9.9091139999999994E-2</c:v>
+                  <c:v>-0.36708049999999998</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-9.8511769999999999E-2</c:v>
+                  <c:v>-0.3675966</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-0.1018713</c:v>
+                  <c:v>-0.36751689999999998</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-9.5732360000000002E-2</c:v>
+                  <c:v>-0.36748730000000002</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-9.5468280000000003E-2</c:v>
+                  <c:v>-0.36899419999999999</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-9.3922320000000004E-2</c:v>
+                  <c:v>-0.3689037</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-0.10410519999999999</c:v>
+                  <c:v>-0.36855979999999999</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-0.10147929999999999</c:v>
+                  <c:v>-0.36847059999999998</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-9.5544790000000004E-2</c:v>
+                  <c:v>-0.368004</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-9.5257300000000003E-2</c:v>
+                  <c:v>-0.36770249999999999</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>-9.5120399999999994E-2</c:v>
+                  <c:v>-0.36765209999999998</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>-9.3493359999999998E-2</c:v>
+                  <c:v>-0.36749880000000001</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>-9.3576950000000006E-2</c:v>
+                  <c:v>-0.36741780000000002</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>-0.1008628</c:v>
+                  <c:v>-0.36736469999999999</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>-0.1037028</c:v>
+                  <c:v>-0.36745220000000001</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>-0.1050667</c:v>
+                  <c:v>-0.36745719999999998</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>-9.9613110000000005E-2</c:v>
+                  <c:v>-0.36735449999999997</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>-9.5808370000000004E-2</c:v>
+                  <c:v>-0.3673728</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>-9.3899209999999997E-2</c:v>
+                  <c:v>-0.36726259999999999</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>-9.3143870000000004E-2</c:v>
+                  <c:v>-0.36648950000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ElbowRight.Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$H$2:$H$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>-6.5999269999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.5862249999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.5856100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1483870000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.19574220000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19317300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.2910969999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.3588459999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.3688469999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.2479949999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.2571870000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.2700140000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.3142539999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.3461909999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.2037448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.6062070000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6672670000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2048085</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.4818399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.3816990000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.3259120000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.3208739999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.20431779999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.6066669999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.20485220000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.6207180000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.5280690000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.2618640000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.3822840000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.3885140000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.19046279999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.20168340000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.3964889999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.7630720000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.7092959999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19597800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.6067780000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.19064900000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.19682050000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.1999563</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.1973751</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1991684</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.19600139999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.6302070000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.305616E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.19187570000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.1917026</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.4406249999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.19214899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.5732260000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.19324279999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-6.4155530000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.1941338</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-6.4072169999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.2405200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-6.2179470000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.3079220000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-6.4544610000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.20102529999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.18747910000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.1879979</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.9794030000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.9785949999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-6.7152980000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.20060520000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-6.8660189999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-6.7173880000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.4512700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-6.4896350000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-6.6162890000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-6.84583E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-7.1132409999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-7.0738540000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-6.5674999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-6.6792099999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.21346280000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-6.3905190000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-6.3709429999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-6.3239459999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.21107880000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-6.5132869999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.2104972</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.5876019999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.20888670000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.20790549999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.20728730000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-6.5596160000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-6.3846109999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-6.3915710000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.20652809999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.20662749999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.20292560000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.2037503</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-6.4961729999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-6.5112219999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-6.5357609999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-6.5693360000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-6.5765299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-6.6170779999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-6.588049E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.2139972</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-7.0453139999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.1934959</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-6.8968100000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-6.8521520000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-6.8754999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-6.87252E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-6.7328559999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-6.5258670000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-6.598677E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-6.3813049999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-6.2986940000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-6.7993780000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-6.7307619999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.7706719999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.7115519999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.20672699999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-6.8444610000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-6.723411E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.20516609999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-6.6818610000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-6.6853780000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-6.694456E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-6.3220949999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-6.3602629999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-6.4379019999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.2014706</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.19915759999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-6.6043409999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-6.6182989999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-6.6766800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-6.678183E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-6.6637230000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-6.8230990000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-6.8506269999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-6.8353849999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-6.708944E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.1976842</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.19795180000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-6.4450190000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-6.3648270000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-6.3570769999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.2006539</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.20070360000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.2001791</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.19724530000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.19730639999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.19523799999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.19540089999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-6.3526869999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.19532459999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.19405210000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-6.3031009999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.19282369999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.19519500000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-6.2070180000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-6.16091E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-6.3745499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.19975080000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.2022487</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.2016348</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-6.3873600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.2013046</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-6.3358049999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-6.3624490000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.19762469999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.19596669999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-6.4466280000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-6.4353750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.19458729999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.19250010000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-6.4294699999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-6.4096940000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-6.4544539999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-6.6344929999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-6.6238679999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.19154959999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.1910626</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.19242899999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.19429869999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.19458010000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-6.7164109999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.1923541</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-6.4303170000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-6.5382190000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.19345770000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-6.7186609999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-6.7392540000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-6.7142279999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-6.7112660000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.1936446</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.1891988</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.19441700000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.1950462</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-6.2941200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.19324189999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.19504369999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-6.4336000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.1987022</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.19819619999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-6.6360749999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.19508710000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-6.6656629999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.1949573</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.19771810000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-6.7807480000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.1997158</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-6.6807240000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-6.5012479999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.20016529999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-6.5401219999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-6.5411620000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.1939408</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-6.567191E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.19755590000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.19845760000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.19850689999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-6.6036380000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.20091519999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-6.7384109999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.19880049999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.20017889999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-6.607391E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-6.6033560000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-6.495049E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-6.5085309999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-6.4804829999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-0.2012737</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-0.19849410000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-6.4252429999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.1971842</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-0.19755429999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-6.4970079999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-0.19940430000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-0.2007931</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-6.6795140000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-6.2766130000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-6.3552360000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-0.20489280000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-6.0832190000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-6.1004269999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-6.0986690000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-6.2976989999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-6.2883869999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-6.2747090000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-6.3464950000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-0.20070089999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-6.2929750000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-6.3331949999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-6.3634720000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.19978940000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.19891400000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-6.6053979999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-6.5963179999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-6.679823E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-6.6452689999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-0.19900300000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-6.4518809999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-6.4326170000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-0.198737</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-6.5129370000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-6.0165929999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-6.2603450000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-6.2450169999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-6.1990879999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-6.2236079999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.1912758</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.19826189999999999</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-6.3800850000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-6.5683350000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-6.5884990000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-6.6368010000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-6.6421869999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-6.3159469999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-6.2018629999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-6.1597810000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-6.1181279999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-6.0989540000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-6.255985E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.20133190000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-6.1582900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-0.2032475</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.20134060000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-5.9231619999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-5.8424759999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-6.3750509999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-6.2164879999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-5.8929660000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-0.20096820000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-5.8860450000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-5.7973820000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-5.7955420000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-6.1551099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-6.3092570000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-0.20230480000000001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-6.1027049999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-5.8984139999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-5.7951179999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-5.7589550000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,11 +3467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40677760"/>
-        <c:axId val="40679296"/>
+        <c:axId val="65915904"/>
+        <c:axId val="131932928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40677760"/>
+        <c:axId val="65915904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +3480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40679296"/>
+        <c:crossAx val="131932928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +3488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40679296"/>
+        <c:axId val="131932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +3499,5749 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40677760"/>
+        <c:crossAx val="65915904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HandRight.X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$A$2:$A$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0.1469348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14635870000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1458071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13579330000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13525770000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13410520000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1336697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13293279999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13287399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1322924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1322758</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13229679999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13210859999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13131499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13198760000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1315849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13211490000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13229650000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13134199999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13101850000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.130721</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13069500000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13079769999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13482369999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13624439999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13637969999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13684650000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13755590000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1358702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1349033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13490640000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1344774</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13412879999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13424549999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13718949999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1362478</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13511200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1344448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13360089999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13286899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13672989999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1350712</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13466919999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.134435</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13459270000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1345655</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.13499059999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.1352439</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1352701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1348982</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13500989999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.13538729999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13586599999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1354535</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13490340000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.135073</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.13500100000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.13579150000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13627320000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.13972100000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13719290000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.1396831</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14062540000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14040469999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13989799999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13889609999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.13870089999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.1374215</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.1355326</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13428219999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.13220670000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13717399999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.1379176</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.13726669999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.1309699</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1373664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1358347</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.134186</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.13419639999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.13381009999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.13335659999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.13556650000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13844709999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.1370565</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13684869999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.13669680000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.1350295</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13449539999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1337218</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13348760000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.13263730000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.13128709999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.13152639999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1312393</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.13059580000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.13076969999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1305801</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1304892</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.13072439999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.1305395</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1307632</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.13568230000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.1360295</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.1366069</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.13942589999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.1359476</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.1365682</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.13760449999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.13690559999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.13577719999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.13520480000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.13551389999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.13565060000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.1414222</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.14078080000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.14189309999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.1393026</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.13976189999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.1414349</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.14001040000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.13954169999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.1386917</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.1383132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.13820270000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.1352295</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.13563120000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.13542489999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.135381</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.13549340000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.1379262</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.13811560000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.1386539</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.1373026</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.137491</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.14010739999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.14232149999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.14404790000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.14038510000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.13942869999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.14228189999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.1405161</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.14060600000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.14108270000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.1413045</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.14210590000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.14207810000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.1426492</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.14268729999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.1423787</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.142429</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.14221449999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.14287910000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.1427561</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.1426528</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.14268</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.14307549999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.1431267</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.14142779999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.14350479999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.1429474</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.1408903</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.1412031</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.14137140000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.1414937</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.14161979999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.14139379999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.1412621</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.14261270000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.1426453</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.14259810000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.1421733</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.1418528</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.14174680000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.14150689999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.14119960000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.14151820000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.14138300000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.1412168</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.1422754</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.14236370000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.143207</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.14305960000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.1433556</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.14142479999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.14202010000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.14031660000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.14190369999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.1426104</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.1428943</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.1429433</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.1433517</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.14349770000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.1420468</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.1430775</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.1437978</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.14392659999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.14334540000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.14300969999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.14257239999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.14232909999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.13864299999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.138872</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.1382178</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.13920289999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.13983880000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.1389283</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.1389745</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.1380574</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.13789360000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.13606090000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.1360209</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.13569980000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.13569790000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.1361726</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.13609840000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.13613810000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.1361029</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.13603419999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.13596449999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.13827059999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.13775519999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.1386482</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.13711880000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.13733890000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.13729549999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.13691700000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.1370497</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.1364168</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.136799</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.13677729999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.13724500000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.13732150000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.13748270000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.13758139999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.14054030000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.14028669999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.14276069999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.141961</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.1408076</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.1432812</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.14007829999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.1396056</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.13953789999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.1386937</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.13854140000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.13866400000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.13831830000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.13856930000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.13863120000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.1386839</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.1388074</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.13886680000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.13835459999999999</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.14276630000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.14153750000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.1422612</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.14180129999999999</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.14167850000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.14174120000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.14146520000000001</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.14119709999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.14071030000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.1391056</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.13802149999999999</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.13811590000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.13821420000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.13792499999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.1379686</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.138652</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.14048579999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.1389106</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.13894139999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.13825109999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.13810120000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.13811390000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.13744139999999999</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.13712930000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.13644490000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.13642190000000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.13655300000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.13703969999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.1369079</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.13750979999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.13799529999999999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.13801820000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.13809080000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.1365171</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.13582739999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.1370362</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.13678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.1369409</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.1372708</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.13716390000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.13570660000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.13524990000000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.13468269999999999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.1363298</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.13485910000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.1345488</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.13405909999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HipCenter.X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$D$2:$D$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>2.7338230000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5794190000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5067740000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.323248E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2781180000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2763189999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0214949999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9560879999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9521549999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8907449999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8677849999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8109139999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7594039999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7435869999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6890169999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.595574E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6974119999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6017610000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6279169999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6014420000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.523158E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.486142E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4855500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.460739E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.515798E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5275850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.525469E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.544035E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.54492E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.559783E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5690030000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5324020000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5882540000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6121E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.651358E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6783329999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6865330000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6384200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7168619999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6936030000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6908369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6626499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.735602E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.708517E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6975859999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.702244E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.70528E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7050010000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6865660000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.73081E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7496459999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7436239999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.885413E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8838290000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8620390000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8693120000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8256419999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8789050000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7391790000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7039329999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.625936E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6137289999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6646620000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6692060000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6345169999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6551650000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6606550000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.672382E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.664413E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6634739999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6309589999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.630974E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.544937E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.541235E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5844560000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5678319999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4490299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.449202E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4510230000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.460462E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4555790000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.452548E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.421557E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.419546E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.374243E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4721390000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.475982E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.450855E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.522889E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4746749999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.456752E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.398307E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.398926E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3272809999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.339421E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.369136E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.343286E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3405530000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.287716E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.305778E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.301397E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.318713E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.356186E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3928050000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6645389999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.687806E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6012200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5970749999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6035460000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8494859999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.847437E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.915598E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.10557E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.103849E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.0938760000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.100784E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.0415010000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0444650000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.0509369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.0507359999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.048521E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.043348E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.0366579999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.0798520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0732629999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1267060000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1711640000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1417539999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.1668E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.152277E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.1491489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1787069999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1826439999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.0764100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.1307119999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.1983989999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.191833E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.110153E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0721779999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.0584040000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0135770000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.015511E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9934710000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.981579E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0120599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0592800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.9497790000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.9546259999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.0585019999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8750800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.880362E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.710619E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.696305E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7550670000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.8264160000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.6900100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7215319999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.6733040000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.639409E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.651008E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6030470000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5794470000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6056890000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.6486609999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.6653520000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7864100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.7426810000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.7478810000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.7361499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.694915E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.6611649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.6801489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.6381989999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.571583E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.682589E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.964428E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.900835E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.1359260000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.1464170000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.1513299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.13916E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.139272E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.1623079999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.0670839999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0953240000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.1898899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.1879679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.260264E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.244728E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.156506E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.1505949999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.1146169999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.1112720000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.056351E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.110861E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.0891150000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.0975049999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.0904240000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.0461489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.0350340000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.0713769999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.0831220000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.11801E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.9984829999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.1338380000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.1369849999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.9791509999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.9753819999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.9368570000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.929194E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.8971729999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.8116030000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.788706E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.7335110000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.830971E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.8144500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.8693129999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.8610979999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.962318E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.9661830000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.9789029999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.9192850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.9010829999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.901796E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.122187E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.1219910000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.1192280000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.13162E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.212664E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.2109879999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.2141839999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.0988260000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.077739E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.093861E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.0627400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.9833960000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.9550310000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.9647479999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.0233250000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.9924529999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.9925390000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.0004339999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.9918849999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.065796E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.080309E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.0777090000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.981523E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.99533E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.9698170000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.0109709999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.9377439999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.9065289999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.8609520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.7900570000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.7910659999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.7802330000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.721346E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.739038E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.6970260000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.7047550000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.7240620000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.7260290000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.815754E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.836672E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.8277849999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.9544010000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.944096E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.851653E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.9076659999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.923977E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.8468390000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.911235E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.9029020000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.8949939999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.9129989999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.0517850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.0740439999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.1139290000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.0603489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.0512969999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.1215250000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.0353880000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.9061910000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.9107059999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.7611789999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.7665320000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.890263E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.8705599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.958213E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.9783240000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.9741379999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.9650879999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.994023E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.982072E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.0067629999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.0043689999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.9884200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.9861469999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.977164E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.285732E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ElbowRight.X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$G$2:$G$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0.1540861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15405489999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1540609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1496412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16052830000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16048470000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14875669999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14834449999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14797930000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14581459999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14532690000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.156143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14507410000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14510319999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14479420000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1520698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14430019999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14436379999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1526004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1434629</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1425459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14231779999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14230989999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1542598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14630409999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1558494</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14642859999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14671619999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14639360000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1461925</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14609539999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15314729999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.15684690000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1460291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1477049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14796019999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.15800120000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14742720000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1563291</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1564894</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15695129999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1568166</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15615290000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15709310000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14790429999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14878379999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15993869999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16058410000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14925949999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16016089999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14916450000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1587845</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.14955089999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1589942</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14914250000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.14902319999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1490002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.14915880000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.14888000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.15837670000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.149563</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.1516547</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1477724</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1474193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.14715449999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.1551109</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14623949999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.14575879999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.1447484</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.1446045</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.14451030000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.145783</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14594470000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.146171</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.14498420000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14578279999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.15860060000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14572350000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14553650000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.14529790000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.1538996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.14601939999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15445010000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.1466981</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.15336610000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.1529848</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.1524295</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.14596709999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.14421700000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14410419999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.14899770000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.14890439999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1484521</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1487327</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1428161</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.14350830000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.14350889999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1434107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.14338799999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.14317289999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.14314080000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.15612580000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.14577229999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.15456880000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.1474676</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.14830450000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.1484019</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.14975179999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.14936940000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.1493305</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.14891889999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.14923919999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.1490824</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.15158269999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.15144299999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.15179380000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.15067240000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.1603319</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.1525262</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.15197920000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.1602161</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.15112539999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.15082789999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.14934049999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.1497077</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.15049750000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.15589</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.1566854</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.15154200000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.1516536</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.1518621</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.15132209999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.15148320000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.15215609999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.1531063</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.15270010000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.15121000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.15763579999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.15859239999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.15207850000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.15218429999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.1520831</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.15885099999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.15905359999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.1589979</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.15964159999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.15895049999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.1592278</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.15888179999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.1514875</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.15968180000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.1589979</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.15161450000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.15821930000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.15717320000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.1515174</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.15076220000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.1517326</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.15579170000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.1562876</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.15663270000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.1506361</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.15683659999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.15087139999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.1507791</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.1585472</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.15887599999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.15150179999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.1512416</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.1571178</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.15808030000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.1500196</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.15005270000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.1502078</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.15088550000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.1511303</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.16419810000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.1631117</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.16167880000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.16067509999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.16109589999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.1532694</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.15919720000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.15269260000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.15189040000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.1596352</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.15319199999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.15282609999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.1534886</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.15370420000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.159298</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.1597326</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.16130050000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.16137460000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.15408350000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.16183429999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.16127349999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.15312809999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.15942229999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.1591796</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.15216830000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.15967339999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.1518996</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.16023270000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.16007150000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.15091489999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.1599738</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.1505099</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.1497781</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.15938450000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.1496526</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.1498176</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.1576639</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.1499115</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.1576467</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.1576738</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.1578406</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.1499077</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.15909480000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.15064730000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.15773200000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.15742</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.15024660000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.15005499999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.15018390000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.1502385</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.15002280000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.1575136</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.15804689999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.15090190000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.15762580000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.15755250000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.15045349999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.1585599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.15838160000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.1526245</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.15241460000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.15194379999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.16120139999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.1517376</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.1516496</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.15213869999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.15153649999999999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.15149950000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.15152360000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.15131739999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.1596361</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.15147679999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.15143809999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.1515426</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.15847130000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.1587701</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.15314040000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.15288599999999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.15339159999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.1530031</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.15959909999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.1527155</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.1524373</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.1589023</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.1515763</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.1510061</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.14994660000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.15008289999999999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.1505331</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.1505186</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.15940190000000001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.15875800000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.15210580000000001</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.15119260000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.1510493</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.150563</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.15051580000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.15063660000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.1505021</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.15036569999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.14996670000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.15001819999999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.14996390000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.15765989999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.14987529999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.1564499</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.1567742</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.15005099999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.1499772</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.14907909999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.14876400000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.1494721</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.1585039</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.14952480000000001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.149726</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.1497281</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.14875189999999999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.14851</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.1568147</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.14937320000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.14876729999999999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.14920559999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.14904310000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="54588928"/>
+        <c:axId val="54590464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54588928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54590464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54590464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54588928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HandRight.Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$C$2:$C$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>2.6878139999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6863419999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.683522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6662460000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6669610000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.66499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6673800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6675239999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.667205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6653560000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6653009999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6654810000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6651030000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.663459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6649430000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6632440000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6736620000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.675586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6689910000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6692610000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.667287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6669390000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6670790000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.679214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6800280000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6795960000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6790409999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.674515</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.66587</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6669109999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6668379999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6659190000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.665206</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6656089999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6781199999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6763340000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6732719999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6704530000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6654529999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.666226</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6818610000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6710479999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6729240000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6726130000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6723840000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6648670000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6637949999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6641149999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6649090000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6651210000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6689940000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6627040000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6645539999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.662982</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.6609080000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6608369999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6624400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6673909999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.682884</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6716890000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.676447</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6909920000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.6899489999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.681292</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6864720000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6868539999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6834639999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.676628</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6723150000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.653197</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6818569999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.6924229999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.688091</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.6530819999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6758459999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6683319999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6651150000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.665279</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.6638730000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.6635260000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6699310000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.6799089999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6750319999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6751040000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6738369999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.6721180000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6717149999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.6688130000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.6707730000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.668806</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6713290000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.669705</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6695069999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.6671459999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.6670159999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.6669900000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.6673390000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.6671589999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6681720000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6687470000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.686458</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6854819999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6854909999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.6697199999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.6797200000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.681092</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.6821389999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.6720429999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.667891</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.6693799999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.6658550000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.6653090000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6847050000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.6820300000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.6877239999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.6812369999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.6826120000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.6878000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.682436</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.680879</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.6795300000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.6791860000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.6789619999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.6685500000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.6686770000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.670042</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.6702780000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.6705610000000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.678569</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.6772490000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.680504</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.6791640000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.6779579999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.686728</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.6892870000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.6951429999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.6871239999999998</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.6819700000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.6858599999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.6827040000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.6805110000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.68099</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.6870120000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.6886230000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.6880600000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.685813</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.6863830000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6865130000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.6862170000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.686051</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.684739</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.6835309999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.6827239999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.6826780000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.680847</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.6806540000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.6760139999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.6846719999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.6834790000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.6821969999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.6817859999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.683926</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.684558</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.6840570000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.683821</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.6834500000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.6870599999999998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.6870059999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.6868180000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.68438</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.681705</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.6819039999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.681222</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.6812040000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.6856260000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.6855289999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.6869459999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.6891829999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.6888999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.6915520000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.6919970000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.691316</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.6762760000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.6838570000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.6838169999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.689397</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.6906829999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.6919930000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.6919400000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.69232</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.6916190000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.6684169999999998</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.6756760000000002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.6807650000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.6805599999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.6800899999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.6795119999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.6813639999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.6823220000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.6775030000000002</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.6785049999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.673616</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.677368</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.6817950000000002</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.6767530000000002</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.6770160000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.6719040000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.672412</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.6689820000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.669022</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.6688299999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.6688559999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.670083</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.6691950000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.6692990000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.6692559999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.6686290000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.6686049999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.6757970000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.673772</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.6747990000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.6730640000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.6723379999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.6723530000000002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.6704479999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.6702970000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.6701410000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.6702249999999998</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.669845</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.6703320000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.6702880000000002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.6716519999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.671389</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.6813039999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.6806390000000002</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.6821449999999998</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.670102</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.67136</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.6906119999999998</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.665025</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.6656589999999998</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.6661890000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.67042</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.6704889999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.6703839999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.6709930000000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.666954</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.6670410000000002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.6671580000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.6681409999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.6689970000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.6684800000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.6805910000000002</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.6766320000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.6820110000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.6807430000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.6791689999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.6787740000000002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.679011</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.6789879999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.682985</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.6684890000000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.6734369999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.673467</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.6731060000000002</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.6720980000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.6720630000000001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.673705</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.6783990000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.6818520000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.6816740000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.681362</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.6804450000000002</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.6755460000000002</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.6725180000000002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.6719059999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.6708500000000002</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.6706020000000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.6730689999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.672431</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.6722100000000002</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2.6750219999999998</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.6674259999999999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.6674980000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.6658979999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.6782849999999998</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.6752050000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.667805</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.6667550000000002</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.6669260000000001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.6648800000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.6650309999999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.6702759999999999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.673146</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.6745930000000002</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.669473</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.6642100000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.6629139999999998</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.6616309999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HipCenter.Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$F$2:$F$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>3.2340580000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2331639999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2327880000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2327309999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2326100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2322669999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2323550000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2321550000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.231608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2314259999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2311459999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2309480000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2306219999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2302550000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.230073</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2296960000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2287560000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2283270000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.228027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2279640000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.227703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2277499999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.227293</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.22749</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2272989999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2270500000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.227093</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2268270000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2268349999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2267869999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.226807</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2269770000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2270639999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2270400000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2269139999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2268439999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2267429999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2269570000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2268340000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.226769</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.2268219999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2269269999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.226769</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2268340000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2270219999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2269130000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2267250000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2267229999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2267860000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2265429999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.226362</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2262740000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2252209999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.2252390000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.2254149999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2254</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.225733</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.225498</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2259519999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.2260390000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2264750000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.2264240000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2260499999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.2259289999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2258230000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2257560000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.2255790000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.22567</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.2256550000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2256640000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2252320000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.2252239999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2254800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2253980000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.2251080000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.225209</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.2255039999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.2254640000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2253880000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2252329999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.2250009999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.224977</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2248800000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.224342</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.2242030000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.2242229999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.2239990000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.2240760000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.223916</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.2240069999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.2241300000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.2242579999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.2241919999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2240180000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2241149999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.224056</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.2240169999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.22418</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.224259</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.224488</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.224539</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.2245499999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.2248019999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.2247729999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.2250329999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.2252079999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.2253660000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2247710000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.2248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.224917</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.2248549999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.224844</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2248640000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2249210000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.225069</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.2249020000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.2249560000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.2249669999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2249880000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.224907</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.2250809999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2252190000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.2252100000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.2254900000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.225428</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.225651</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.2258019999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2260140000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.2259660000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.2257790000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.2257560000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.226251</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.2262360000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.2262430000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.2262520000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.22654</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.226667</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.226769</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.2271770000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.2271369999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.2270620000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.2271719999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.227179</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.2271209999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.2273679999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.2273149999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.2270180000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.22716</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.2270080000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.2272460000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.2270650000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.2265060000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.2262040000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.226423</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.2261449999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.2259699999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.226013</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.2259479999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.2259799999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.2259660000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.2257280000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.2255449999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.2253069999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.2248230000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.2248890000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.2248350000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.2248329999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.2248250000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.2248830000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.2245309999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.2245720000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.2248860000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.2246350000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.2233149999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.2236030000000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.2228810000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.2228720000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.2228699999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.2228910000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.2230590000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.2229100000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.2231239999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.2230430000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.2231139999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.2231269999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.2231040000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.2232820000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.223503</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.2235320000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.2235960000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.2235860000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.2236549999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.2234509999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.2235580000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.223306</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.2232980000000002</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.2231670000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.2230989999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.2228439999999998</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.2222059999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.2220689999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.2220469999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.2215440000000002</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.22132</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.2212689999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.2210580000000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.2208540000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.2206290000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.220647</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.2206950000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.2205810000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.2206950000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.21997</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.21983</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.2194600000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.2193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.2187730000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.2186659999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.2186509999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.2189990000000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.2188509999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.2185600000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.2183980000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.2186020000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.2186149999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.218648</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.2184879999999998</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.2185000000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.2185600000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.21916</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.2191670000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.2191960000000002</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.2194790000000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.219849</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.2198630000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.2198310000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3.2199270000000002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.2199209999999998</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3.2199089999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3.2199019999999998</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.220145</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.2200519999999999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.2200540000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.2201520000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.2208549999999998</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.2209240000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.22099</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.2209840000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.2211059999999998</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.2213099999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.2215060000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.2216019999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.221616</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3.221711</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3.2219129999999998</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3.2221769999999998</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3.2222400000000002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.2222529999999998</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.2222930000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.2223000000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.2218810000000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3.2219440000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.2220010000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.2221090000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.2220949999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.2219829999999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.2215820000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3.2216529999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.2219669999999998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.222035</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.2220339999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.2220279999999999</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3.2219600000000002</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3.221257</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.220485</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.2203140000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.2203970000000002</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.2203659999999998</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.220262</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.2202250000000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.2205349999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.2204739999999998</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.2203849999999998</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.2203460000000002</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.2200340000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.2201010000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.2194829999999999</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.2195040000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.2194189999999998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.2195070000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.2194530000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.219462</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.2195420000000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.2194950000000002</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.2195140000000002</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.2195079999999998</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.2196289999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.2187260000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HandVorne!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ElbowRight.Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>HandVorne!$I$2:$I$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>2.9862769999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9852970000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.984639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9846810000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0895640000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0875349999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.983663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9833599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9824419999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9824299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.982307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0860240000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9813939999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9803790000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.980318</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.079869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9796960000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9801519999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.078227</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9794239999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.979438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9795509999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.980019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0788709999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9806849999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0787490000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.981468</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9818150000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9822829999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9826190000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.982138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0856849999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0818469999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9823460000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9825499999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9823469999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0850029999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9816799999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.085102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0826069999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0827200000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0822319999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0814550000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0812520000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9809139999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.980791</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.081188</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.083218</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.9808680000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.083062</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9800849999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0819200000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9785240000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.083164</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9792149999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.980413</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9804249999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9797120000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.979492</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0766640000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0820620000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.08141</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9792350000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.97885</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.978084</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0761609999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.9775990000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.9781469999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.9778539999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.977862</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9782329999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.978173</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.97797</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9779949999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.979069</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.979012</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0761449999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.9774850000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9773900000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9775900000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0758139999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9780449999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.0749590000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.9784039999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.0744850000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.0756199999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.0756640000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.978345</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.9797950000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.980029</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.0757270000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.0767380000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.080444</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.0794169999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.9789530000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.9781710000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9785520000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9789970000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9790589999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.9793289999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.9803730000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.0772210000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.9811169999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.0860789999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.983816</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.9826299999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.9824730000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.983053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.9834890000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.9845380000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.9836659999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.983822</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.986618</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.9873460000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.9870359999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.9871729999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.9870079999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0846749999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.9854970000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9860570000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.086293</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9867720000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9869690000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.986154</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.985865</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.9860869999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.9875889999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.0826720000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.0858750000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.9883690000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.9882</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.987676</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.9884050000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.9883799999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.9894189999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.9894660000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.9909780000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.990999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.0915370000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.0910929999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.9911620000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.9909599999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.991101</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.0913520000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.092117</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.0917629999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.0901999999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.0905689999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.090233</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.089566</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.991168</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.0893000000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.0883210000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.9894050000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.088733</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.088578</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.988086</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.9873080000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.9873780000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.0855739999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.0844239999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.0838960000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.9872649999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.0836730000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.987689</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.9878809999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.0845280000000002</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.0848810000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.9876839999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.9879690000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.0857109999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.086443</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.9869340000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.9868290000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.9857330000000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.9862099999999998</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.9859399999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.0864569999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.087555</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.0860660000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.0851169999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.085083</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9877349999999998</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.084003</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.986739</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.9872930000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.0851060000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.9867949999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.9878339999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.9875970000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.987549</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.0847509999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.0844</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.0826609999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.08304</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.98468</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.083377</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.081108</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.9823559999999998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.075898</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.0765509999999998</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.9814400000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.07897</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.9805090000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.078757</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.076527</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.9774889999999998</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.0732379999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.9769809999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.9769890000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.072991</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.9764599999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.9764659999999998</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.0778279999999998</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.9762420000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.076136</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.07483</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.0742440000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.9755379999999998</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.0720160000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.975463</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.076756</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.0730919999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.974434</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.9745210000000002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.9743140000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.9744809999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.974342</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.0705309999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.071275</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.975841</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.0723189999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.0724459999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.9761820000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.0733609999999998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.073563</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.9770509999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.976756</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.9770249999999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.075771</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.9764080000000002</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.9765100000000002</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.9775299999999998</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.9783330000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.9786709999999998</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.9790580000000002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.9789479999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.076311</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.9786260000000002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.9783189999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.9788269999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.0768369999999998</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.077194</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.9784470000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.9784090000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.9792619999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.979311</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3.0796030000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.9789620000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.979555</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.0805470000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.9807730000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.9802240000000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.9807109999999999</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.9814219999999998</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.9805640000000002</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.9800520000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.0816650000000001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.077458</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.9788260000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.9788420000000002</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.9788809999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.9779550000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.9780700000000002</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.9788809999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.9785750000000002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.9781559999999998</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.977881</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.9777399999999998</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.9775209999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.074322</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.9782929999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.071364</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.0716619999999999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.979711</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.9796710000000002</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.9804080000000002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.9805419999999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.9801709999999999</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.0712329999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.9794200000000002</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.979444</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.9796930000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.980232</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.9804840000000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.07423</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.9802409999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.9798089999999999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.9795410000000002</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.979527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="132975616"/>
+        <c:axId val="132989696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132975616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132989696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132989696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132975616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2523,20 +9267,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2546,6 +9290,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2841,19 +9649,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2881,11 +9691,20 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1469348</v>
       </c>
@@ -2913,12 +9732,23 @@
       <c r="I2">
         <v>2.9862769999999998</v>
       </c>
-      <c r="K2">
-        <f>STDEV(A2:A301)</f>
-        <v>3.5265080454234049E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2">
+        <f>AVERAGE(A$2:A$301)</f>
+        <v>0.1378750843333332</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2:N2" si="0">AVERAGE(B$2:B$301)</f>
+        <v>-0.10359506413333329</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6752541766666651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.14635870000000001</v>
       </c>
@@ -2946,12 +9776,23 @@
       <c r="I3">
         <v>2.9852970000000001</v>
       </c>
-      <c r="K3">
-        <f>STDEV(B2:B302)</f>
-        <v>4.2459608096729433E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="3">
+        <f>MAX(ABS(AVERAGE(A$2:A$301)-MAX(A$2:A$301)), ABS(AVERAGE(A$2:A$301)-MIN(A$2:A$301)))</f>
+        <v>9.0597156666668011E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:N3" si="1">MAX(ABS(AVERAGE(B$2:B$301)-MAX(B$2:B$301)), ABS(AVERAGE(B$2:B$301)-MIN(B$2:B$301)))</f>
+        <v>2.84468358666667E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2172176666665155E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.1458071</v>
       </c>
@@ -2979,8 +9820,23 @@
       <c r="I4">
         <v>2.984639</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4">
+        <f>STDEV(A$2:A$301)</f>
+        <v>3.5265080454234049E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:N4" si="2">STDEV(B$2:B$301)</f>
+        <v>4.2459608096729433E-3</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2977366413993989E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.13579330000000001</v>
       </c>
@@ -3009,7 +9865,7 @@
         <v>2.9846810000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.13525770000000001</v>
       </c>
@@ -3037,8 +9893,20 @@
       <c r="I6">
         <v>3.0895640000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.13410520000000001</v>
       </c>
@@ -3066,8 +9934,23 @@
       <c r="I7">
         <v>3.0875349999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2">
+        <f>AVERAGE(D$2:D$301)</f>
+        <v>1.8502547000000001E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:N7" si="3">AVERAGE(E$2:E$301)</f>
+        <v>-0.36886170566666698</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>3.224126896666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.1336697</v>
       </c>
@@ -3095,8 +9978,23 @@
       <c r="I8">
         <v>2.983663</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="3">
+        <f>MAX(ABS(AVERAGE(D$2:D$301)-MAX(D$2:D$301)), ABS(AVERAGE(D$2:D$301)-MIN(D$2:D$301)))</f>
+        <v>8.8356830000000004E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:N8" si="4">MAX(ABS(AVERAGE(E$2:E$301)-MAX(E$2:E$301)), ABS(AVERAGE(E$2:E$301)-MIN(E$2:E$301)))</f>
+        <v>2.37220566666696E-3</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="4"/>
+        <v>9.9311033333311372E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.13293279999999999</v>
       </c>
@@ -3124,8 +10022,23 @@
       <c r="I9">
         <v>2.9833599999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4">
+        <f>STDEV(D$2:D$301)</f>
+        <v>2.5128813249537542E-3</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:N9" si="5">STDEV(E$2:E$301)</f>
+        <v>1.0908282944140195E-3</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="5"/>
+        <v>3.2168881740594511E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.13287399999999999</v>
       </c>
@@ -3154,7 +10067,7 @@
         <v>2.9824419999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1322924</v>
       </c>
@@ -3182,8 +10095,20 @@
       <c r="I11">
         <v>2.9824299999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.1322758</v>
       </c>
@@ -3211,8 +10136,23 @@
       <c r="I12">
         <v>2.982307</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2">
+        <f>AVERAGE(G$2:G$301)</f>
+        <v>0.15233622900000002</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12:N12" si="6">AVERAGE(H$2:H$301)</f>
+        <v>-0.1128283387</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0173883533333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.13229679999999999</v>
       </c>
@@ -3240,8 +10180,23 @@
       <c r="I13">
         <v>3.0860240000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3">
+        <f>MAX(ABS(AVERAGE(G$2:G$301)-MAX(G$2:G$301)), ABS(AVERAGE(G$2:G$301)-MIN(G$2:G$301)))</f>
+        <v>1.1861870999999996E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" ref="M13:N13" si="7">MAX(ABS(AVERAGE(H$2:H$301)-MAX(H$2:H$301)), ABS(AVERAGE(H$2:H$301)-MIN(H$2:H$301)))</f>
+        <v>0.1011688613</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="7"/>
+        <v>7.4728646666666787E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13210859999999999</v>
       </c>
@@ -3269,8 +10224,23 @@
       <c r="I14">
         <v>2.9813939999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="4">
+        <f>STDEV(G$2:G$301)</f>
+        <v>4.9344749588370908E-3</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14:N14" si="8">STDEV(H$2:H$301)</f>
+        <v>6.440471715822621E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="8"/>
+        <v>4.8068564817218259E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.13131499999999999</v>
       </c>
@@ -3299,7 +10269,7 @@
         <v>2.9803790000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.13198760000000001</v>
       </c>
